--- a/classfiers/chatty/welm/chatty_welm_tanh_results.xlsx
+++ b/classfiers/chatty/welm/chatty_welm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9742489270386266</v>
+        <v>0.9765258215962441</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9926578560939795</v>
+        <v>0.9844497607655502</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9812206572769953</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8084415584415585</v>
+        <v>0.4920634920634921</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.7764423076923076</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7117903930131004</v>
+        <v>0.7236519607843138</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.9716981132075472</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5460526315789475</v>
+        <v>0.529126213592233</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9845234571555423</v>
+        <v>0.9745681636991762</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7859264188599999</v>
+        <v>0.7011467469795793</v>
       </c>
     </row>
   </sheetData>
